--- a/user-data/uganda-primary-pupil-classroom-ratio-priv/uganda-primary-pupil-classroom-ratio-priv.xlsx
+++ b/user-data/uganda-primary-pupil-classroom-ratio-priv/uganda-primary-pupil-classroom-ratio-priv.xlsx
@@ -730,7 +730,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 23</t>
+    <t xml:space="preserve">Source: 24</t>
   </si>
   <si>
     <t xml:space="preserve"/>
